--- a/Docs/Specs/Listák.xlsx
+++ b/Docs/Specs/Listák.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorottya.fancsik\Documents\PRVT\KanTor\GitKraken\Kantoratus\Docs\Specs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1E1EA0-2BC9-48E2-851E-68479D037C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Önálló művek" sheetId="6" r:id="rId1"/>
@@ -12,8 +18,8 @@
     <sheet name="A Fővárosi Protestáns Kántorátu" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="1174">
   <si>
     <t>Gumpelzhaimer, Adam (1559–1625): Miatyánk-kánon</t>
   </si>
@@ -1955,11 +1961,1661 @@
   <si>
     <t>Zalatnay Lídia</t>
   </si>
+  <si>
+    <t>Aichinger, Gregor (1565–1628)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Merre van Ábel? SAB</t>
+  </si>
+  <si>
+    <t>Anerio, Felice (1560–1614)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christus factus est SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Szívemet hozzád emelem – 25. genfi zsoltár SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A menny Urának tisztelet SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bleib bei uns BWV 6 kantáta 1. tétel SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ein feste Burg ist unser Gott BWV 80 kantáta 5. és 8. tétel SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heilig, heilig, heilig SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Herr Christ, der ein'ge Gottessohn BWV 96 kantáta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Höchsterwünschtes Freudenfest BWV 194 kantáta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ich, elender Mensch BWV 48 kantáta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jesu, meine Freude SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Készülj, lelkem, Jézusodhoz SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ki dolgát mind az Úrra hagyja SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Krisztus, ártatlan Bárány SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kyrie, Gott Vater in Ewigkeit SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lobet den Herrn, alle Heiden SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mint égből tiszta hó SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mit Isten akar énvelem SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nun komm, der Heiden Heiland BWV 61 kantáta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sei Lob und Preis mit Ehren SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suscepit Israel – a Magnificat 9. versszaka SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adjunk hálát immár SATB</t>
+  </si>
+  <si>
+    <t>Becker, Albert (1834–1899)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Befiehl du deinen Wege SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hagyjad az Úristenre minden te utadat SAB</t>
+  </si>
+  <si>
+    <t>Bennett, W. S. (1816–1875)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Két tétel A samáriai asszony c. kantátából SATB+szólisták</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ó, maradj vélem SATB+org</t>
+  </si>
+  <si>
+    <t>Berthier, Jacques (1923–1994)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jubilate Deo kánon</t>
+  </si>
+  <si>
+    <t>Bourgeois, Louis (1510–1559)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aki a felséges Úrnak – 91. genfi zsoltár SATB</t>
+  </si>
+  <si>
+    <t>Boyce, William (1710–1779)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alleluja kánon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ach, arme Welt SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Az Úr kezében életem SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schaffe in mir, Gott, ein rein Herz SATBB</t>
+  </si>
+  <si>
+    <t>Briegel, Wolfgang Karl (1626–1712)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hálát mondva áldunk Téged SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Siehe, dein König kommt SATB</t>
+  </si>
+  <si>
+    <t>Bruck, Arnold von (†1554)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christ der ist erstanden SATB (c.f. in T)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O, du armer Judas SSATBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pater noster SSAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vater unser SATB</t>
+  </si>
+  <si>
+    <t>Brunckhorst, Arnold (1670–1725)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dies ist der Tag a Húsvéti történet c. kantátából SATB</t>
+  </si>
+  <si>
+    <t>Burgk, Joachim a (1546–1610)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Im Garten leidet Christus Not SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wer wollte nun nicht fröhlich sein SATB</t>
+  </si>
+  <si>
+    <t>Buxtehude, Dietrich (1637–1707)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cantate Domino kantáta a 96. zsoltárra SSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Der Herr ist mit mir SATB+zkr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In te, Domine, speravi SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magnificat SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nun bitten wir den heiligen Geist</t>
+  </si>
+  <si>
+    <t>Búza András (1982–)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jézus, világ Megváltója SAB</t>
+  </si>
+  <si>
+    <t>Byrd, William (1543/4–1623)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Haec dies ATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Haec dies quam fecit Dominus SSATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In resurrectione tua SAATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laetentur coeli SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laudibus in sanctis Dominum SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ne irascaris, Domine SATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sacerdotes Domini SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Siderum rector SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vigilate SATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mint édesatyja asztalát SATB</t>
+  </si>
+  <si>
+    <t>Cardoso, Manuel (1569–1650)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aquam quam ego dabo SSATB</t>
+  </si>
+  <si>
+    <t>Celminskis, Mamerts (1912–1993)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gloria tibi Trinitas SATB</t>
+  </si>
+  <si>
+    <t>Cima, Giovanni Paolo (1570–1630)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O Domine SB</t>
+  </si>
+  <si>
+    <t>Coates, Robert (1954–)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desz-dúr Magnificat SATB</t>
+  </si>
+  <si>
+    <t>Croce, Giovanni (1557–1609)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cantate Domino SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fájdalmak férfia SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cantate Domino SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ich will bei meinem Leben / Míg én e földön élek SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ó, drága Jézus SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Krisztus, ártatlan Bárány SA(T)B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ó, seregeknek Istene – 84. genfi zsoltár SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mert úgy szerette Isten a világot SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Szállj alá a mennyből SA / TB</t>
+  </si>
+  <si>
+    <t>Dedekind, Constantin Christian (1628–1715)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minden ember téged áld kiskantáta SAB+solo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erhalt uns, Herr SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria durch ein Dornwald ging SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Az Úr Isten Ádám atyánknak SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Itt van Isten köztünk SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kegyes Jézus, itt vagyunk TBB</t>
+  </si>
+  <si>
+    <t>Dressler, Gallus (1533–1585)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ich bin die Auferstehung und das Leben SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lobet den Herren, alle Heiden SATB</t>
+  </si>
+  <si>
+    <t>Drischner, Max (1891–1971)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Der Herr ist mein Hirte SAB</t>
+  </si>
+  <si>
+    <t>Dubra, Rihards (1964–)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laudate Dominum – 150. zsoltár SSA</t>
+  </si>
+  <si>
+    <t>Durandus, Caspar Chrysostomus (17. század)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áldunk téged, Isten SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Halleluja, halleluja ST</t>
+  </si>
+  <si>
+    <t>Duruflé, Maurice (1902–1986)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Notre Père SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Der große Tag des Herren SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Der Heilig Geist vom Himmel kam SSATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Herr Christe tu mir geben was ich nicht nehmen kann SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Im Garten leidet Christus Not SSATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kommt her zu mir, spricht Gottes Sohn SATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria wallt zum Heiligtum SSATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nun liebe Seel nun ist es Zeit SSATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zacharias war ganz verstummt SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zu dieser österlichen Zeit SSAATB</t>
+  </si>
+  <si>
+    <t>Elgar, Edward (1857–1934)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ave verum corpus natum de Maria Virgine S solo+SATB</t>
+  </si>
+  <si>
+    <t>Erich, Ambrosius (16. század)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áldunk téged, Úr Krisztusunk ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dank sagen wir alle Gott SATB</t>
+  </si>
+  <si>
+    <t>Esterházy Pál (1653–1713) gyűjteményéből</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dormi Jesu, dulcissime / Szép napunk elérkezett SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jézus eljön nemsokára SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Veni creator spiritus SATB+S solo</t>
+  </si>
+  <si>
+    <t>Fauré, Gabriel (1845–1924)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ave verum SA+org</t>
+  </si>
+  <si>
+    <t>Finck, Heinrich (1445–1527)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In Gottes Namen fahren wir SATB</t>
+  </si>
+  <si>
+    <t>Franck, Cesar (1822–1890)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Halld, mily szózat hangzik SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Panis angelicus ST+org</t>
+  </si>
+  <si>
+    <t>Franck, Melchior (1580?–1639)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ach treuer Heiland, Jesu Christ SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Also hat Gott die Welt geliebt SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Also werden die Letzten die Ersten sein SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Also wird euch mein himmlicher Vater auch tun SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Da nun die Menschen das Zeichen sahen SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Das aber auf dem guten Land sind, die das hören SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Der Herr hat gesagt zu meinem Herren SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entsetzet euch nicht! SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Es ist ein großer Prophet unter uns aufgestanden SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fürwahr, er trug unsere Krankheit SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Geh aus auf die Landstraßen und an die Zäune SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gehet hin und saget Johanni wieder /  Jézus szavai János tanítványaihoz SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heb dich weg von mir, Satan! / Távozz el tőlem, Sátán</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Herr, komm hinab, eh denn mein Kind stirbet SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hosianna dem Sohne Davids SSAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ich bin ein guter Hirte SSAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ich taufe mit Wasser SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jedermann gibt zum ersten guten Wein SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mein Sohn, warum hast du uns das getan? SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nehmet hin den heiligen Geist SSAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saget den Gästen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Siehe, meine Mahlzeit hab ich bereitet SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Siehe, dieser wird gesetzt zu einem Fall SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trachtet am ersten nach dem Reich Gottes SSAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Und du, Bethlehem im jüdischen Lande SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Und er rief und sprach</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jesu, du Sohn Davids, erbarm dich mein SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wahrlich, ich sage euch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ich werdet weinen SSAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So ihr den Vater etwas bitten werdet SSAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warum denket ihr so Args in eurem Herzen SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wenn du geladen wirst, so gehe hin SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wer mich liebet, der wird mein Wort halten / Mind, ki szeret SSAT</t>
+  </si>
+  <si>
+    <t>Freundt, Cornelius (1540–1591)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wie schön singt uns der Engel Schar SATB / SSAB</t>
+  </si>
+  <si>
+    <t>Gabrieli, Giovanni (1557–1612)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O magnum mysterium SATBx2</t>
+  </si>
+  <si>
+    <t>Gallus, Jacobus (1550–1591)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Confirma hoc Deus SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dies ist der Tag SATB+SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Domine ad adjuvandum SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O Herre Gott, in meiner Not SATB</t>
+  </si>
+  <si>
+    <t>Gárdonyi Zoltán  (1906–1986)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Légy hív mindhalálig kánon + org.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serkenj föl, aki aluszol kánon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hagyjad az Úrra kánon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mondjatok dicséretet SATB+org</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tarts meg, Urunk SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Új világosság jelenék SSA</t>
+  </si>
+  <si>
+    <t>Gaul, Harvey Bartlett (1881–1945)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teach us, good Lord SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Szép tündöklő hajnalcsillag S solo + zkr</t>
+  </si>
+  <si>
+    <t>Gerzsenyi Sándor (1933–2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Csillagfényes, csöndes éjjel SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ein Kind geborn zu Bethlehem SATB</t>
+  </si>
+  <si>
+    <t>Gibbons, Orlando (1583–1625)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Almighty and everlasting God SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nunc Dimittis from Short Service SATB</t>
+  </si>
+  <si>
+    <t>Gombert, Nicolas (1495– 1560)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In Gottes Namen fahren wir SSAA / TTBB</t>
+  </si>
+  <si>
+    <t>Goss, John (1800–1880)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Almighty and merciful God SATB</t>
+  </si>
+  <si>
+    <t>Goudimel, Claude (1510–1572)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Az Úr énnékem őriző pásztorom – 25. genfi zsoltár SATB polifón</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nosza, istenfélő szent hívek – 33. genfi zsoltár SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Az Isten a mi reménységünk – 46. genfi zsoltár c.f. in T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Az Isten a mi reménységünk – 46. genfi zsoltár polifón</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Énekeljetek minden népek – 96. genfi zsoltár SATB polifón</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ímé, mily jó és mily nagy gyönyörűség – 133. genfi zsoltár SATB polifón</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aller Augen warten auf dich, Herr SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gott Vater uns sein Sohn fürstellt SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Miatyánk-kánon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mit Fried und Freud ich fahr dahin SAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Örvendjetek, keresztyének SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wir danken dir, Herr Gott SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zengjen a dal az Úrnak, és örvendj, hívő népe SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ad te Domine levavi SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minden földek, Istent dicsérjétek! SSA</t>
+  </si>
+  <si>
+    <t>Hammerschmidt, Andreas  (1612–1675)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O, Vater aller Frommen SSTTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Triumph, Triumph, Victoria SSATB</t>
+  </si>
+  <si>
+    <t>Hammerschmidt, Andreas (1611–1675)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schmücket das Fest mit Maien SSATB</t>
+  </si>
+  <si>
+    <t>Hammerschmidt, Andreas (1612–1675)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Machet die Tore weit SSAATB (SAB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Halleluja a Saul c. oratóriumból SATB</t>
+  </si>
+  <si>
+    <t>Hans Leo Hassler (1564–1612)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verbum caro factum est ATB</t>
+  </si>
+  <si>
+    <t>Harmat Artúr (1885–1962)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O crux ave SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cantate Domino SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jer, örvendjünk keresztyének SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verbum caro factum est</t>
+  </si>
+  <si>
+    <t>Haydn, Johann Michael (1737–1806)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Judas mercator pessimus SATB</t>
+  </si>
+  <si>
+    <t>Haydn, Joseph (1732–1809)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Az Úrra hagyjad utad SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Show me your ways – 25. zsoltár SAB</t>
+  </si>
+  <si>
+    <t>Haydn, Michael (1737-1806)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tribulationes cordis mei SATB</t>
+  </si>
+  <si>
+    <t>Hayes, Philipp (1738–1797)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hozsánna! SAB</t>
+  </si>
+  <si>
+    <t>Hemmel, Sigmund (1520–1565)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dir, o Herr, will ich singen SATB</t>
+  </si>
+  <si>
+    <t>Herzogenberg, Heinrich von (1843–1900)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schmecket und sehet SATB</t>
+  </si>
+  <si>
+    <t>Homilius, Gottfried August (1714–1985)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deo dicamus gratias SSATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Domine, ad adiuvandum me SSATBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íme, milyen nagy áldás SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Siehe, das ist Gottes Lamm SATB</t>
+  </si>
+  <si>
+    <t>Isaac, Heinrich (1450–1517)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ego sum pastor bonus SATB</t>
+  </si>
+  <si>
+    <t>Ismeretlen spanyol szerző (16. század)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Évnek újulásán SATB</t>
+  </si>
+  <si>
+    <t>Ismeretlen szerző (13. sz.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alleluja, zengjétek szent nevét! SSA</t>
+  </si>
+  <si>
+    <t>Ismeretlen szerző</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Danket dem Herrn, denn er ist freundlich SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lobe den Herrn, meine Seele SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mint a szép híves patakra SATB (c. f. in T)</t>
+  </si>
+  <si>
+    <t>Kapi Gyula – Kapi Klárik Jenő</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Könyörülj, Úristen mirajtunk SATB+org</t>
+  </si>
+  <si>
+    <t>Katada, Yui (1985–)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ó, jöjj, ó, jöjj, Immánuel </t>
+  </si>
+  <si>
+    <t>Kickstat, Paul (1893–1959)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soli Deo gloria kánon</t>
+  </si>
+  <si>
+    <t>Kindermann, Johann Erasmus (1616–1655)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mennybéli áldott Istenünk SAB</t>
+  </si>
+  <si>
+    <t>Klemetti, Heikki (1876–1953)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A dextris Dei SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christus pro nobis passus est SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mitten wir im Leben sind SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A mennyből jövök hozzátok SSS + zkr</t>
+  </si>
+  <si>
+    <t>Kocsár Miklós (1933–2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Két tétel az Ó, gyönyörűszép, titokzatos éj. Karácsonyi énekek nőikarra c. gyűjteményből (Csordapásztorok és Kirie elejszon) SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adventi ének SA(T)B</t>
+  </si>
+  <si>
+    <t>Kostiainen, Pekka (1944–)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verbum caro factum est a Piae Cantiones (1582) gyűjteményből SSAA</t>
+  </si>
+  <si>
+    <t>Krieger, Johann Philipp (1649–1725)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Die Welt kann den Geist der Wahrheit nicht empfangen – dialóguskantáta B solo+SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lehre mich tun, nach deinem Wohlgefallen SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schaff in mir, Gott ein reines Herz SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Az ég és föld Urának SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erős vár a mi Istenünk SAB</t>
+  </si>
+  <si>
+    <t>Kugelmann, Paul (?–1580)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Benedicamus a 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adoramus te, Christe / Áldunk Téged, Úr Krisztus a Magnum opus musicum gyűjteményből SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agimus tibi gratias a Magnum opus musicum gyűjteményből SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Domine Deus / Úristen áldunk SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jauchzet Gott, alle Lande / Énekelj az Úrnak  SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magnificat primi toni SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oculus non vidit SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ujjongván az Úrban a Magnum opus musicum gyűjteményből SATB</t>
+  </si>
+  <si>
+    <t>Lau, Heinz (1925–1975)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wer sich die Musik erkiest – kánon Luther versére</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Historia der Passion und Leidens unsers einigen Erlösers und Seligmachers Jesu Christi SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Már nyugosznak a völgyek SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nun schein du Glanz der Herrlichkeit SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Szép, fényes hajnalcsillagom</t>
+  </si>
+  <si>
+    <t>Liebhold-nál (†1730)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Az Úrra hagyjad minden dolgod SATB</t>
+  </si>
+  <si>
+    <t>Ligeti György (1923–2006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ha folyóvíz volnék a Két kánonból</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Húsvét (részlet) SSMAA</t>
+  </si>
+  <si>
+    <t>Liszt Ferenc (1811–1886)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Él a Krisztus SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kleine Passionsmusik SATB + zkr</t>
+  </si>
+  <si>
+    <t>Lotti, Antonio (1666–1740)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Úr Jézus Krisztus feltámadt SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vere languores nostros SAB</t>
+  </si>
+  <si>
+    <t>Maistre, Matthäus Le (1505–1577)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aller Augen warten auf dich, Herr SAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tarts meg, Urunk, szent igédben SAT</t>
+  </si>
+  <si>
+    <t>Martini, Giovanni Battista (1706–1784)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jöjj, várlak, drága Jézusom! SSA</t>
+  </si>
+  <si>
+    <t>Mendelssohn Bartholdy, Felix (1809–1847)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abendsegen / Herr sei gnädig SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hebe deine Augen auf / Bízva nézz a bércre fel tercett az Illés c. oratóriumból SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jauchzet dem Herren SATB/2×</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jól tudom, mily gyarló szó az én imádságom SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nunc dimittis (Herr, nun lässest du) SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sechs Sprüche n</t>
+  </si>
+  <si>
+    <t>o 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Am Karfreitag (Um unsrer Sünden willen) SSAATTBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trauergesang SATB</t>
+  </si>
+  <si>
+    <t>Mendelssohn-Bartholdy, Felix (1809–1847)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Veni Domine SSA+org</t>
+  </si>
+  <si>
+    <t>Menegali (18–19. század)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jesu, salvator mundi SAB</t>
+  </si>
+  <si>
+    <t>Monteverdi, Claudio (1567–1643)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áldjátok az Urat SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Angelus ad pastores ait SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cantate Domino SSATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ó, áldott, drága Jézus Krisztus SSA</t>
+  </si>
+  <si>
+    <t>Morley Thomas (c.1557–1602)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nolo mortem peccatoris SATB</t>
+  </si>
+  <si>
+    <t>Mozart, W. A. (1756–1791)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beatus vir qui timet Dominum SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Davidde penitente SST soli + SATB + zkr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grabmusik S, B soli + SATB + zkr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Halljad, néped mint sóhajt SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jubilate Deo omnis terra SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laudate Dominum – 117. zsoltár S solo + SATB + org</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Missa brevis (Kyrie, Gloria)</t>
+  </si>
+  <si>
+    <t>Náray Máté (1988–)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kyrie SAB</t>
+  </si>
+  <si>
+    <t>Nicolson, Richard (1570–1639)</t>
+  </si>
+  <si>
+    <t>Nystedt, Knut (1915–2014)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I will praise thee, o Lord SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Itt az Isten köztünk SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bizony meglészen az idő bicinium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bűnünkért tenger sok a könny SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erős vár a mi Istenünk bicinium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jöjj, áldott nagy Királyunk / Krisztus Atyaistennek egyetlenegy fia bicinium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mitten wir im Leben sind bicinium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O Mensch, bewein dein Sünde groß SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ó, teremtő Atya Isten bicinium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Örvendezek benned SS</t>
+  </si>
+  <si>
+    <t>Pachelbel, Johann (1653–1706)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gott ist unser Zuversicht SATB.SATB</t>
+  </si>
+  <si>
+    <t>Palestrina, Giovanni P. da (1526–1594)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adoramus te, Christe  SSAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Benedicta sit sancta Trinitas SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Improperium exspectavit cor meum SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jesu, rex admirabilis SAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lauda Sion Salvatorem SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quae est ista SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sicut cervus desiderat SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Úr Krisztus, hála néked SATB</t>
+  </si>
+  <si>
+    <t>Perti, Giacomo Antonio (1661–1756)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adoramus te, Christe SATB</t>
+  </si>
+  <si>
+    <t>Philips, Peter (1565–1628)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ascendit Deus SSATB</t>
+  </si>
+  <si>
+    <t>Pitoni, Giuseppe Ottavio (1657–1743)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Szárnyaljon énekünk SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Also hat Gott die Welt geliebt SSATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kyrie SSATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aus tiefer Not SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enatus est Emanuel SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feltámadt Krisztus, vigadjunk SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gloria SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hála légyen fönn az égben az Istennek! SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jesus Christus, unser Heiland AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jézus Krisztus, mi Megváltónk SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Krisztus, ki vagy nap és világ SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Küldé az Úr Isten SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kyrie eleison SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Midőn eljön az én órám SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Most, Uram, elbocsátod SATB+SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sanctus SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Úristen, e napon téged áldunk SAB</t>
+  </si>
+  <si>
+    <t>Prés, Josquin des (1450–1521)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jöjj el, Szentlélek SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O Jesu, fili David, miserere mei SATB</t>
+  </si>
+  <si>
+    <t>Purcell, Henry (1659–1695)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Come, Come, ye Sons of Art SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lord, How Long Wilt Thou be Angry SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nunc dimittis SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thou knowest, Lord SATB</t>
+  </si>
+  <si>
+    <t>Rasch, Johannes (1540–1612)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christ ist erstanden SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Also hat Gott die Welt geliebt SATB.SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wir glauben all an einen Gott / Mi valljuk, hiszünk Istenben SATB</t>
+  </si>
+  <si>
+    <t>Rauch, Andreas (1592–1656)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spiritus Domini super me SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erhalt uns, Herr, bei Deinem Wort (Verleih uns Frieden) SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wir glauben all an einen Gott / Mi valljuk, hiszünk Istenben ATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jézus, én bizodalmam SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Királyi zászló jár elöl SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Krisztus feltámadt SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Szép hajnalcsillag SAB</t>
+  </si>
+  <si>
+    <t>Ruppel, Paul Ernst (1913–2006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áldunk, Jézusunk – kánon egy Buxtehude-témára</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bleib bei uns, Herr SATB</t>
+  </si>
+  <si>
+    <t>Schein, Johann Hermann (1586–1630) nyomán</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christ unser Herr zum Jordan kam SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schmücket das Fest mit Maien SAB</t>
+  </si>
+  <si>
+    <t>Schein, Johann Hermann (1586–1630)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heut triumphieret Gottes Sohn / Feltámadt Isten szent fia SSATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ich freue mich im Herren SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ich lasse dich nicht SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O Herr, ich bin dein Knecht / Szolgád, az vagyok én SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Was mein Gott will / Meghajtom térdem SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wenn wir in höchsten Nöten sein / Úristen, most eléd lépek nőikar</t>
+  </si>
+  <si>
+    <t>Schmidlin, Johannes (1722–1772)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jöjj, áldjad az Istent SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lobt Gott, ihr Christen, alle gleich SSATB (c.f. in T)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A feltámadt Krisztust dicsérje szívünk és szánk SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A föltámadás története magyar nyelven Soli + SATB + zkr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Also hat Gott die Welt geliebt SATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Auf dich traue ich SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bringt her den Herren S solo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Das Blut Jesu Christi SSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Der Engel sprach SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Der Herr ist mein getreuer Hirt – 23. Becker-zsoltár SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Der Herr ist mein Hirt (a Symphoniae sacrae 3. kötetéből) SAT solo + SATB + zkr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Die Gottseligkeit SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Die Himmel erzählen die Ehre Gottes – 19. zsoltár SSATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Die mit Tränen säen SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ehre sei die, Christe (a Máté-passió zárókórusa) SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eile mich, Gott, zu erretten S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Es ist erschienen die heilsame Gnade Gottes SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feget den alten Sauerteig aus SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gib unsern Fürsten SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Herr, auf dich traue ich SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hozzád megyek, én Jézusom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ich bin die Auferstehung und das Leben SATB.SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ich bin ein rechter Weinstock SSATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ich weiss, dass mein Erlöser lebt SSAATBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ihr Heiligen lobsinget den Herren SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ist Gott für uns, wer mag wieder uns sein? SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> János-passió magyar nyelven S, 2 T, 2 B soli + SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jauchzet dem Herren / Hívek, szent nap derült rátok SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jauchzet dem Herren SATB.SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jézus Krisztus hét szava a keresztfán S, A, 3 T, 2 B soli + SATB + zkr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Karácsonyi történet / A mi Urunk, Jézus Krisztus születésének története</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lobet den Herren meine Seele SATB.SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lukács-passió S, A, 4 T, 4 B soli + SATB </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ó, áldott Jézus Krisztusunk SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O, lieber Herre Gott SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rorate caeli SSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selig sind die Toten SSATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Singet dem Herrn ein neues Lied / Új ének zengje szent nevét – 96. Becker-zsoltár SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Singet dem Herrn ein neues Lied SATB.SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So fahr ich hin zu Jesu Christ SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unser keiner lebet ihm selber SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vater unser SATB.SATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Veni Sancte Spiritus 4 együttesre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verleih uns Frieden SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wohl dem, der nicht wandelt im Rath der Gottlosen SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zeige mir, Herr, den Weg deiner Rechte („He und Vav”) – 119. zsoltár SATB.SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aller Augen warten auf dich, Herr SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Das Vaterunser SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lobet den Herren alle Heiden SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mily jó őt dicsérni SSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O, Jesu Christ, mein Gott und Herr SSATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zengjen az Úrnak hálaszó SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Das Volk, das im Finstern wandelt SA</t>
+  </si>
+  <si>
+    <t>Stölzel, Gottfried Heinrich (1690–1749)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Te Deum 1–5. és 11. tétel SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A farizeus és a vámszedő SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ártatlanság szent Báránya SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bízom tebenned, szent Isten SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boldogok a holtak SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feljött már a csillag, leszállott az est SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kínok árnyékaiból SATB+org</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mily kedvesek a te hajlékaid – 84. zsoltár SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semmit ne bánkódjál SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Az Isten óv és karján hordoz engem – 23. genfi zsoltár</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Énekeljetek minden népek – 96. genfi zsoltár polifón SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hallgasd meg, Izráel pásztora – 80. genfi zsoltár polifón SATTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Szemem az égre emelem – 121. genfi zsoltár polifón SATB</t>
+  </si>
+  <si>
+    <t>Szokolay Sándor (1931–2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23. zsoltár (n</t>
+  </si>
+  <si>
+    <t>o 12 a Szakrális kánonok sorozatból) 5sz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dicsérjed Istened, ó, én lelkem SAB</t>
+  </si>
+  <si>
+    <t>Tallis, Thomas (1505–1585)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Audivi vocem de caelo SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O Lord, give thy Holy Spirit to our hearts / Uram, add Szentlelkedet! SATB</t>
+  </si>
+  <si>
+    <t>Telemann, Georg Philipp (1681–1767)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Also hat Gott die Welt geliebt SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ein feste Burg ist unser Gott korálmotetta SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ew'ge Quelle, milder Strom szólókantáta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ha kél a nap SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heilig ist Gott, der Herr SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Húsvéti ária</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ich will den Herrn loben alle Zeit kánon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jauchzet, ihr Himmel SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lobet den Herrn, alle Heiden – 117. zsoltár SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lukács-passió T, Bar solo + SATB + zkr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Machet die Tore weit kantáta STB soli + SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schmückt das frohe Fest mit Maien szólókantáta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unser keiner lebet ihm selber SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wandelt in der Liebe szólókantáta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wie lieblich sind deine Wohnungen SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fogadj be, Uram SAB + org.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lauda Sion SSAA</t>
+  </si>
+  <si>
+    <t>Tóth Árpád (1982–)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O, magnum mysterium SS soli + SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ubi caritas SS soli + SATB</t>
+  </si>
+  <si>
+    <t>Várkonyi András Péter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paradicsom mezejibe – népi imádságokra 6sz. nőikar</t>
+  </si>
+  <si>
+    <t>Vaughan Williams, Ralph (1872–1958)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O taste and see S solo + SATB</t>
+  </si>
+  <si>
+    <t>Victoria, Tomás Luis de (1548–1611)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O quam gloriosum est / Ó, mily dicsőséges SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O quam metuendus est SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O sacrum convivium SSSAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vere languores nostros SATB</t>
+  </si>
+  <si>
+    <t>Vierdanck, Johann (1605–1646)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jauchzet dem Herren / Ujjongj az Úrnak SAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Az élet nekem Krisztus SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dum complerentur dies Pentecostes SSAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erős vár a mi Istenünk SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Es werden nicht alle, die zu mir sagen SSATTB</t>
+  </si>
+  <si>
+    <t>Vulpius, Melchior (1571–1615)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wer mich liebet, der wird mein Wort halten SATB</t>
+  </si>
+  <si>
+    <t>W. A. Mozart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laudate Dominum – 117. zsoltár S solo + SATB + zkr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dicséret zengjen ajkunkon SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Herr Gott wenn ich dich hab allein SATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nun bitten wir dem heiligen Geist SATTB</t>
+  </si>
+  <si>
+    <t>Walter, Johann</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allein auf Gottes Wort SATB</t>
+  </si>
+  <si>
+    <t>Webbe, Samuel (1740–1816)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agnus Dei a d-moll miséből SA+org</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kyrie a d-moll miséből SAB+org</t>
+  </si>
+  <si>
+    <t>Weelkes, Thomas (1576–1623)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hosanna to the son of David SSATBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ó, maradj vélem SATB</t>
+  </si>
+  <si>
+    <t>Young, Gordon (1919–1998)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alleluia SSATB</t>
+  </si>
+  <si>
+    <t>Zachow, Friedrich Wilhelm (1663–1712)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kyrie SATB</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -2148,7 +3804,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2418,2225 +4074,6191 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A440"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A459" sqref="A459"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="129.42578125" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" customWidth="1"/>
+    <col min="4" max="4" width="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="19" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="21" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="21" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="21" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="21" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="22" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D9" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="23" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="23" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="20" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D12" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="21" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D13" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="21" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="21" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D15" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="21" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D16" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="19" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D17" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D18" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D19" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D20" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="16" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D21" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D22" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D23" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" t="s">
+        <v>648</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D24" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D25" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="11" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>651</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D26" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>651</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D27" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="s">
+        <v>654</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D28" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" t="s">
+        <v>656</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D29" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="11" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="s">
+        <v>658</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D30" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D31" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="11" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D32" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="10" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D33" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="10" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" t="s">
+        <v>663</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D34" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="s">
+        <v>663</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="11" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="s">
+        <v>666</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D36" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D37" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D38" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D39" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="11" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" t="s">
+        <v>671</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D40" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" t="s">
+        <v>673</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D41" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" t="s">
+        <v>673</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D42" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" t="s">
+        <v>676</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D43" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" t="s">
+        <v>676</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D44" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="12.75" customHeight="1">
+      <c r="B45" t="s">
+        <v>676</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D45" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="10" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" t="s">
+        <v>676</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D46" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" t="s">
+        <v>676</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D47" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="12" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" t="s">
+        <v>682</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D48" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" t="s">
+        <v>684</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D49" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" t="s">
+        <v>684</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D50" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" t="s">
+        <v>684</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D51" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" t="s">
+        <v>684</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D52" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="15" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" t="s">
+        <v>684</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D53" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" t="s">
+        <v>684</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D54" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" t="s">
+        <v>684</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D55" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" t="s">
+        <v>684</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D56" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" t="s">
+        <v>684</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D57" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D58" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="12" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" t="s">
+        <v>695</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D59" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" t="s">
+        <v>697</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D60" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" t="s">
+        <v>699</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D61" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" t="s">
+        <v>701</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D62" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" t="s">
+        <v>703</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D63" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" t="s">
+        <v>703</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D64" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D65" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D66" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="9" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D67" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="12" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D68" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="12" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D69" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="12" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D70" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="12" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D71" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72" t="s">
+        <v>713</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D72" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="12" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D73" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D74" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="12" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D76" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="12" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D77" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D78" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79" t="s">
+        <v>720</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D79" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80" t="s">
+        <v>720</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D80" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81" t="s">
+        <v>723</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D81" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" t="s">
+        <v>725</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D82" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" t="s">
+        <v>727</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D83" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84" t="s">
+        <v>727</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D84" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="11" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85" t="s">
+        <v>730</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D85" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86" t="s">
+        <v>210</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D86" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D87" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D88" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89" t="s">
+        <v>210</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D89" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90" t="s">
+        <v>210</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D90" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D91" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92" t="s">
+        <v>210</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D92" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D93" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D94" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="9" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95" t="s">
+        <v>741</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D95" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96" t="s">
+        <v>743</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D96" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D97" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98" t="s">
+        <v>746</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D98" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99" t="s">
+        <v>746</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D99" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100" t="s">
+        <v>746</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D100" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101" t="s">
+        <v>750</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D101" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102" t="s">
+        <v>752</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D102" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103" t="s">
+        <v>754</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D103" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104" t="s">
+        <v>754</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D104" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105" t="s">
+        <v>757</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D105" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106" t="s">
+        <v>757</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D106" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107" t="s">
+        <v>757</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D107" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108" t="s">
+        <v>757</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D108" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109" t="s">
+        <v>757</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D109" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110" t="s">
+        <v>757</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D110" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111" t="s">
+        <v>757</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D111" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112" t="s">
+        <v>757</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D112" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113" t="s">
+        <v>757</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D113" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114" t="s">
+        <v>757</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D114" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115" t="s">
+        <v>757</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D115" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116" t="s">
+        <v>757</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D116" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117" t="s">
+        <v>757</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D117" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118" t="s">
+        <v>757</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D118" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="4" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119" t="s">
+        <v>757</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D119" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="4" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120" t="s">
+        <v>757</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D120" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121" t="s">
+        <v>757</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D121" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122" t="s">
+        <v>757</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D122" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123" t="s">
+        <v>757</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D123" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124" t="s">
+        <v>757</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D124" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125" t="s">
+        <v>757</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D125" t="s">
+        <v>778</v>
+      </c>
+      <c r="E125" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126" t="s">
+        <v>757</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D126" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="4" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127" t="s">
+        <v>757</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D127" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128" t="s">
+        <v>757</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D128" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129" t="s">
+        <v>757</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D129" t="s">
+        <v>783</v>
+      </c>
+      <c r="E129" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130" t="s">
+        <v>757</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D130" t="s">
+        <v>785</v>
+      </c>
+      <c r="E130" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="4" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131" t="s">
+        <v>757</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D131" t="s">
+        <v>785</v>
+      </c>
+      <c r="E131" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132" t="s">
+        <v>757</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D132" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133" t="s">
+        <v>757</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D133" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134" t="s">
+        <v>757</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D134" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135" t="s">
+        <v>791</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D135" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136" t="s">
+        <v>793</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D136" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137" t="s">
+        <v>795</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D137" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="4" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138" t="s">
+        <v>795</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D138" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="12" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139" t="s">
+        <v>795</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D139" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140" t="s">
+        <v>795</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D140" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="10" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141" t="s">
+        <v>800</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D141" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142" t="s">
+        <v>800</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D142" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="15" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143" t="s">
+        <v>520</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D143" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="11" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144" t="s">
+        <v>520</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D144" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="11" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145" t="s">
+        <v>520</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D145" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="11" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146" t="s">
+        <v>520</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D146" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147" t="s">
+        <v>807</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D147" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="10" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148" t="s">
+        <v>213</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D148" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="10" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149" t="s">
+        <v>810</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D149" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150" t="s">
+        <v>214</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D150" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151" t="s">
+        <v>813</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D151" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152" t="s">
+        <v>813</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D152" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153" t="s">
+        <v>816</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D153" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154" t="s">
+        <v>818</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D154" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="12" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155" t="s">
+        <v>820</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D155" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="24" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156" t="s">
+        <v>820</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D156" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="19" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157" t="s">
+        <v>216</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D157" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="19" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158" t="s">
+        <v>216</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D158" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159" t="s">
+        <v>216</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D159" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160" t="s">
+        <v>216</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D160" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161" t="s">
+        <v>217</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D161" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162" t="s">
+        <v>217</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D162" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="B163" t="s">
+        <v>217</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D163" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="12" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="B164" t="s">
+        <v>217</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D164" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="B165" t="s">
+        <v>217</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D165" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="B166" t="s">
+        <v>217</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D166" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="4" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="B167" t="s">
+        <v>217</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D167" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="B168" t="s">
+        <v>218</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D168" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="13" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="B169" t="s">
+        <v>218</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D169" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="B170" t="s">
+        <v>836</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D170" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171" t="s">
+        <v>836</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D171" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="11" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="B172" t="s">
+        <v>839</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D172" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="B173" t="s">
+        <v>841</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D173" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="4" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174" t="s">
+        <v>219</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D174" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="4" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="B175" t="s">
+        <v>844</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D175" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176" t="s">
+        <v>846</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D176" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="B177" t="s">
+        <v>220</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D177" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="4" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178" t="s">
+        <v>220</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D178" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="4" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="B179" t="s">
+        <v>220</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D179" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="B180" t="s">
+        <v>851</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D180" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="4" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="B181" t="s">
+        <v>853</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D181" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182" t="s">
+        <v>853</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D182" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183" t="s">
+        <v>856</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D183" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="11" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184" t="s">
+        <v>858</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D184" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185" t="s">
+        <v>860</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D185" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="4" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="B186" t="s">
+        <v>862</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D186" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="4" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="B187" t="s">
+        <v>864</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D187" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="B188" t="s">
+        <v>864</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D188" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="4" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="B189" t="s">
+        <v>864</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D189" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190" t="s">
+        <v>864</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D190" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="B191" t="s">
+        <v>869</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D191" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="B192" t="s">
+        <v>871</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D192" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="4" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="B193" t="s">
+        <v>873</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D193" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="B194" t="s">
+        <v>875</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D194" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="B195" t="s">
+        <v>875</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D195" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="4" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="B196" t="s">
+        <v>221</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D196" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="4" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="B197" t="s">
+        <v>879</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D197" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="15" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="B198" t="s">
+        <v>881</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D198" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="B199" t="s">
+        <v>883</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D199" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="B200" t="s">
+        <v>885</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D200" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" s="4" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="B201" t="s">
+        <v>887</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D201" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" s="4" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="B202" t="s">
+        <v>887</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D202" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="B203" t="s">
+        <v>222</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D203" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" s="10" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="B204" t="s">
+        <v>223</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D204" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" s="15" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="B205" t="s">
+        <v>892</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D205" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="B206" t="s">
+        <v>224</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D206" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" s="11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
+      <c r="B207" t="s">
+        <v>895</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D207" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="4" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="B208" t="s">
+        <v>897</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D208" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="B209" t="s">
+        <v>897</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D209" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="B210" t="s">
+        <v>897</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D210" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="B211" t="s">
+        <v>262</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D211" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" s="9" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="B212" t="s">
+        <v>262</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D212" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" s="9" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="B213" t="s">
+        <v>903</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D213" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" s="4" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="B214" t="s">
+        <v>225</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D214" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="B215" t="s">
+        <v>225</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D215" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" s="4" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="B216" t="s">
+        <v>225</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D216" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="B217" t="s">
+        <v>225</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D217" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" s="4" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="B218" t="s">
+        <v>225</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D218" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="B219" t="s">
+        <v>225</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D219" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" s="4" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="B220" t="s">
+        <v>225</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D220" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" s="16" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="B221" t="s">
+        <v>912</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D221" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="B222" t="s">
+        <v>228</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D222" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" s="10" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="B223" t="s">
+        <v>228</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D223" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="B224" t="s">
+        <v>228</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D224" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" s="15" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
+      <c r="B225" t="s">
+        <v>263</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D225" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="B226" t="s">
+        <v>918</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D226" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" s="15" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
+      <c r="B227" t="s">
+        <v>920</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D227" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
+      <c r="B228" t="s">
+        <v>920</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D228" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
+      <c r="B229" t="s">
+        <v>923</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D229" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" s="10" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
+      <c r="B230" t="s">
+        <v>229</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D230" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
+      <c r="B231" t="s">
+        <v>926</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D231" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
+      <c r="B232" t="s">
+        <v>926</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D232" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
+      <c r="B233" t="s">
+        <v>929</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D233" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" s="4" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
+      <c r="B234" t="s">
+        <v>929</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D234" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
+      <c r="B235" t="s">
+        <v>932</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D235" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
+      <c r="B236" t="s">
+        <v>934</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D236" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" s="4" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
+      <c r="B237" t="s">
+        <v>934</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D237" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
+      <c r="B238" t="s">
+        <v>934</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D238" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" s="9" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
+      <c r="B239" t="s">
+        <v>934</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D239" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" s="16" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
+      <c r="B240" t="s">
+        <v>934</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D240" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" s="4" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
+      <c r="B241" t="s">
+        <v>934</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D241" t="s">
+        <v>940</v>
+      </c>
+      <c r="E241" t="s">
+        <v>941</v>
+      </c>
+      <c r="F241" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
+      <c r="B242" t="s">
+        <v>934</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D242" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" s="11" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
+      <c r="B243" t="s">
+        <v>944</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D243" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
+      <c r="B244" t="s">
+        <v>946</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D244" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" s="4" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
+      <c r="B245" t="s">
+        <v>948</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D245" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
+      <c r="B246" t="s">
+        <v>948</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D246" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
+      <c r="B247" t="s">
+        <v>948</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D247" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" s="19" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
+      <c r="B248" t="s">
+        <v>948</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D248" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
+      <c r="B249" t="s">
+        <v>953</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D249" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" s="10" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
+      <c r="B250" t="s">
+        <v>955</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D250" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" s="10" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
+      <c r="B251" t="s">
+        <v>955</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D251" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="10" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
+      <c r="B252" t="s">
+        <v>955</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D252" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="10" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
+      <c r="B253" t="s">
+        <v>955</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D253" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" s="4" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
+      <c r="B254" t="s">
+        <v>955</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D254" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" s="4" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
+      <c r="B255" t="s">
+        <v>955</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D255" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" s="4" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
+      <c r="B256" t="s">
+        <v>955</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D256" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257" s="11" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
+      <c r="B257" t="s">
+        <v>963</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D257" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
+      <c r="B258" t="s">
+        <v>965</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D258" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259" s="11" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
+      <c r="B259" t="s">
+        <v>317</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" s="4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
+      <c r="B260" t="s">
+        <v>966</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D260" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" s="13" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
+      <c r="B261" t="s">
+        <v>230</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D261" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262" s="9" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
+      <c r="B262" t="s">
+        <v>231</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D262" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
+      <c r="B263" t="s">
+        <v>231</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D263" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264" s="4" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
+      <c r="B264" t="s">
+        <v>231</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D264" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" s="4" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
+      <c r="B265" t="s">
+        <v>231</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D265" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" s="4" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
+      <c r="B266" t="s">
+        <v>231</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D266" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
       <c r="A267" s="4" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
+      <c r="B267" t="s">
+        <v>231</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D267" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
       <c r="A268" s="4" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
+      <c r="B268" t="s">
+        <v>231</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D268" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
+      <c r="B269" t="s">
+        <v>231</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D269" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270" s="4" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
+      <c r="B270" t="s">
+        <v>977</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D270" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271" s="4" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
+      <c r="B271" t="s">
+        <v>979</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D271" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
+      <c r="B272" t="s">
+        <v>979</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D272" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
+      <c r="B273" t="s">
+        <v>979</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D273" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
+      <c r="B274" t="s">
+        <v>979</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D274" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" s="4" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
+      <c r="B275" t="s">
+        <v>979</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D275" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
+      <c r="B276" t="s">
+        <v>979</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D276" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
+      <c r="B277" t="s">
+        <v>979</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D277" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278" s="4" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
+      <c r="B278" t="s">
+        <v>979</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D278" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279" s="4" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
+      <c r="B279" t="s">
+        <v>988</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D279" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
+      <c r="B280" t="s">
+        <v>990</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D280" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
+      <c r="B281" t="s">
+        <v>992</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D281" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
+      <c r="B282" t="s">
+        <v>233</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D282" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283" s="4" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
+      <c r="B283" t="s">
+        <v>233</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D283" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
       <c r="A284" s="11" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
+      <c r="B284" t="s">
+        <v>234</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D284" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
       <c r="A285" s="11" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
+      <c r="B285" t="s">
+        <v>234</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D285" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
       <c r="A286" s="4" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
+      <c r="B286" t="s">
+        <v>234</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D286" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" s="11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
+      <c r="B287" t="s">
+        <v>234</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D287" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
       <c r="A288" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
+      <c r="B288" t="s">
+        <v>234</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D288" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
+      <c r="B289" t="s">
+        <v>234</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290" s="11" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
+      <c r="B290" t="s">
+        <v>234</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
       <c r="A291" s="4" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
+      <c r="B291" t="s">
+        <v>234</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
       <c r="A292" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
+      <c r="B292" t="s">
+        <v>234</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
       <c r="A293" s="11" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
+      <c r="B293" t="s">
+        <v>234</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
+      <c r="B294" t="s">
+        <v>234</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
+      <c r="B295" t="s">
+        <v>234</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
       <c r="A296" s="4" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
+      <c r="B296" t="s">
+        <v>234</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
       <c r="A297" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
+      <c r="B297" t="s">
+        <v>234</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
       <c r="A298" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
+      <c r="B298" t="s">
+        <v>234</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299" s="4" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
+      <c r="B299" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
       <c r="A300" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
+      <c r="B300" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
       <c r="A301" s="11" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="302" spans="1:1">
+      <c r="B301" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
       <c r="A302" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="303" spans="1:1">
+      <c r="B302" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
       <c r="A303" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="304" spans="1:1">
+      <c r="B303" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
       <c r="A304" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="305" spans="1:1">
+      <c r="B304" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
       <c r="A305" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="306" spans="1:1">
+      <c r="B305" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
       <c r="A306" s="12" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="307" spans="1:1">
+      <c r="B306" t="s">
+        <v>235</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
       <c r="A307" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="308" spans="1:1">
+      <c r="B307" t="s">
+        <v>235</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
       <c r="A308" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="309" spans="1:1">
+      <c r="B308" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
       <c r="A309" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="310" spans="1:1">
+      <c r="B309" t="s">
+        <v>236</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
       <c r="A310" s="4" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="311" spans="1:1">
+      <c r="B310" t="s">
+        <v>236</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
       <c r="A311" s="9" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="312" spans="1:1">
+      <c r="B311" t="s">
+        <v>237</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
       <c r="A312" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="313" spans="1:1">
+      <c r="B312" t="s">
+        <v>237</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
       <c r="A313" s="11" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="314" spans="1:1">
+      <c r="B313" t="s">
+        <v>237</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
       <c r="A314" s="9" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="315" spans="1:1">
+      <c r="B314" t="s">
+        <v>237</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
       <c r="A315" s="10" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="316" spans="1:1">
+      <c r="B315" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
       <c r="A316" s="4" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="317" spans="1:1">
+      <c r="B316" t="s">
+        <v>238</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
       <c r="A317" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="318" spans="1:1">
+      <c r="B317" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
       <c r="A318" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="319" spans="1:1">
+      <c r="B318" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
       <c r="A319" s="4" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="320" spans="1:1">
+      <c r="B319" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
       <c r="A320" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="321" spans="1:1">
+      <c r="B320" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
       <c r="A321" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="322" spans="1:1">
+      <c r="B321" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
       <c r="A322" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="323" spans="1:1">
+      <c r="B322" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="324" spans="1:1">
+      <c r="B323" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
       <c r="A324" s="4" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="325" spans="1:1">
+      <c r="B324" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
       <c r="A325" s="12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="326" spans="1:1">
+      <c r="B325" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
       <c r="A326" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="327" spans="1:1">
+      <c r="B326" t="s">
+        <v>240</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="328" spans="1:1">
+      <c r="B327" t="s">
+        <v>241</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="329" spans="1:1">
+      <c r="B328" t="s">
+        <v>241</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="330" spans="1:1">
+      <c r="B329" t="s">
+        <v>241</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="331" spans="1:1">
+      <c r="B330" t="s">
+        <v>241</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="332" spans="1:1">
+      <c r="B331" t="s">
+        <v>241</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
       <c r="A332" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="333" spans="1:1">
+      <c r="B332" t="s">
+        <v>241</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D332" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="334" spans="1:1">
+      <c r="B333" t="s">
+        <v>241</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
       <c r="A334" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="335" spans="1:1">
+      <c r="B334" t="s">
+        <v>241</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="336" spans="1:1">
+      <c r="B335" t="s">
+        <v>241</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
       <c r="A336" s="17" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="337" spans="1:1">
+      <c r="B336" t="s">
+        <v>241</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
       <c r="A337" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="338" spans="1:1">
+      <c r="B337" t="s">
+        <v>241</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="339" spans="1:1">
+      <c r="B338" t="s">
+        <v>241</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
       <c r="A339" s="4" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="340" spans="1:1">
+      <c r="B339" t="s">
+        <v>241</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" s="19" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="341" spans="1:1">
+      <c r="B340" t="s">
+        <v>241</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
       <c r="A341" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="342" spans="1:1">
+      <c r="B341" t="s">
+        <v>241</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
       <c r="A342" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="343" spans="1:1">
+      <c r="B342" t="s">
+        <v>241</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
       <c r="A343" s="16" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="344" spans="1:1">
+      <c r="B343" t="s">
+        <v>241</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
       <c r="A344" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="345" spans="1:1">
+      <c r="B344" t="s">
+        <v>241</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
       <c r="A345" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="346" spans="1:1">
+      <c r="B345" t="s">
+        <v>241</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
       <c r="A346" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="347" spans="1:1">
+      <c r="B346" t="s">
+        <v>241</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
       <c r="A347" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="348" spans="1:1">
+      <c r="B347" t="s">
+        <v>241</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
       <c r="A348" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="349" spans="1:1">
+      <c r="B348" t="s">
+        <v>241</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
       <c r="A349" s="15" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="350" spans="1:1">
+      <c r="B349" t="s">
+        <v>241</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
       <c r="A350" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="351" spans="1:1">
+      <c r="B350" t="s">
+        <v>241</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
       <c r="A351" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="352" spans="1:1">
+      <c r="B351" t="s">
+        <v>241</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
       <c r="A352" s="20" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="353" spans="1:1">
+      <c r="B352" t="s">
+        <v>241</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
       <c r="A353" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="354" spans="1:1">
+      <c r="B353" t="s">
+        <v>241</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
       <c r="A354" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="355" spans="1:1">
+      <c r="B354" t="s">
+        <v>241</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
       <c r="A355" s="4" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="356" spans="1:1">
+      <c r="B355" t="s">
+        <v>241</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
       <c r="A356" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="357" spans="1:1">
+      <c r="B356" t="s">
+        <v>241</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
       <c r="A357" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="358" spans="1:1">
+      <c r="B357" t="s">
+        <v>241</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
       <c r="A358" s="19" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="359" spans="1:1">
+      <c r="B358" t="s">
+        <v>241</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
       <c r="A359" s="12" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="360" spans="1:1">
+      <c r="B359" t="s">
+        <v>241</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
       <c r="A360" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="361" spans="1:1">
+      <c r="B360" t="s">
+        <v>241</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
       <c r="A361" s="12" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="362" spans="1:1">
+      <c r="B361" t="s">
+        <v>241</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
       <c r="A362" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="363" spans="1:1">
+      <c r="B362" t="s">
+        <v>241</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
       <c r="A363" s="12" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="364" spans="1:1">
+      <c r="B363" t="s">
+        <v>241</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
       <c r="A364" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="365" spans="1:1">
+      <c r="B364" t="s">
+        <v>241</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
       <c r="A365" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="366" spans="1:1">
+      <c r="B365" t="s">
+        <v>241</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
       <c r="A366" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="367" spans="1:1">
+      <c r="B366" t="s">
+        <v>241</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
       <c r="A367" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="368" spans="1:1">
+      <c r="B367" t="s">
+        <v>241</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
       <c r="A368" s="17" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="369" spans="1:1">
+      <c r="B368" t="s">
+        <v>241</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
       <c r="A369" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="370" spans="1:1">
+      <c r="B369" t="s">
+        <v>241</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
       <c r="A370" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="371" spans="1:1">
+      <c r="B370" t="s">
+        <v>241</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
       <c r="A371" s="16" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1">
+      <c r="B371" t="s">
+        <v>241</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
       <c r="A372" s="4" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="373" spans="1:1">
+      <c r="B372" t="s">
+        <v>242</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
       <c r="A373" s="4" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="374" spans="1:1">
+      <c r="B373" t="s">
+        <v>242</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
       <c r="A374" s="11" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="375" spans="1:1">
+      <c r="B374" t="s">
+        <v>242</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
       <c r="A375" s="4" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="376" spans="1:1">
+      <c r="B375" t="s">
+        <v>242</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
       <c r="A376" s="11" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="377" spans="1:1">
+      <c r="B376" t="s">
+        <v>242</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
       <c r="A377" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="378" spans="1:1">
+      <c r="B377" t="s">
+        <v>242</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
       <c r="A378" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="379" spans="1:1">
+      <c r="B378" t="s">
+        <v>243</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
       <c r="A379" s="4" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="380" spans="1:1">
+      <c r="B379" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
       <c r="A380" s="4" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="381" spans="1:1">
+      <c r="B380" t="s">
+        <v>244</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
       <c r="A381" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="382" spans="1:1">
+      <c r="B381" t="s">
+        <v>244</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
       <c r="A382" s="19" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="383" spans="1:1">
+      <c r="B382" t="s">
+        <v>244</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
       <c r="A383" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="384" spans="1:1">
+      <c r="B383" t="s">
+        <v>244</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
       <c r="A384" s="4" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="385" spans="1:1">
+      <c r="B384" t="s">
+        <v>244</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
       <c r="A385" s="4" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="386" spans="1:1">
+      <c r="B385" t="s">
+        <v>244</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
       <c r="A386" s="4" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="387" spans="1:1">
+      <c r="B386" t="s">
+        <v>244</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
       <c r="A387" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="388" spans="1:1">
+      <c r="B387" t="s">
+        <v>244</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
       <c r="A388" s="4" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="389" spans="1:1">
+      <c r="B388" t="s">
+        <v>245</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
       <c r="A389" s="4" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="390" spans="1:1">
+      <c r="B389" t="s">
+        <v>245</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
       <c r="A390" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="391" spans="1:1">
+      <c r="B390" t="s">
+        <v>245</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
       <c r="A391" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="392" spans="1:1">
+      <c r="B391" t="s">
+        <v>245</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
       <c r="A392" s="12" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="393" spans="1:1">
+      <c r="B392" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E392" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
       <c r="A393" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="394" spans="1:1">
+      <c r="B393" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
       <c r="A394" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="395" spans="1:1">
+      <c r="B394" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
       <c r="A395" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="396" spans="1:1">
+      <c r="B395" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
       <c r="A396" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="397" spans="1:1">
+      <c r="B396" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
       <c r="A397" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="398" spans="1:1">
+      <c r="B397" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
       <c r="A398" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="399" spans="1:1">
+      <c r="B398" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
       <c r="A399" s="4" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="400" spans="1:1">
+      <c r="B399" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
       <c r="A400" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="401" spans="1:1">
+      <c r="B400" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
       <c r="A401" s="4" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="402" spans="1:1">
+      <c r="B401" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
       <c r="A402" s="11" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="403" spans="1:1">
+      <c r="B402" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
       <c r="A403" s="11" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="404" spans="1:1">
+      <c r="B403" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
       <c r="A404" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="405" spans="1:1">
+      <c r="B404" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
       <c r="A405" s="4" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="406" spans="1:1">
+      <c r="B405" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
       <c r="A406" s="4" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="407" spans="1:1">
+      <c r="B406" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
       <c r="A407" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="408" spans="1:1">
+      <c r="B407" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
       <c r="A408" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="409" spans="1:1">
+      <c r="B408" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
       <c r="A409" s="4" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="410" spans="1:1">
+      <c r="B409" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
       <c r="A410" s="4" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="411" spans="1:1">
+      <c r="B410" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
       <c r="A411" s="18" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="412" spans="1:1">
+      <c r="B411" t="s">
+        <v>272</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
       <c r="A412" s="18" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="413" spans="1:1">
+      <c r="B412" t="s">
+        <v>272</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
       <c r="A413" s="11" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="414" spans="1:1">
+      <c r="B413" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
       <c r="A414" s="11" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="415" spans="1:1">
+      <c r="B414" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
       <c r="A415" s="16" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="416" spans="1:1">
+      <c r="B415" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
       <c r="A416" s="11" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="417" spans="1:1">
+      <c r="B416" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
       <c r="A417" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="418" spans="1:1">
+      <c r="B417" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D417" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
       <c r="A418" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="419" spans="1:1">
+      <c r="B418" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
       <c r="A419" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="420" spans="1:1">
+      <c r="B419" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
       <c r="A420" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="421" spans="1:1">
+      <c r="B420" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
       <c r="A421" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="422" spans="1:1">
+      <c r="B421" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
       <c r="A422" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="423" spans="1:1">
+      <c r="B422" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
       <c r="A423" s="11" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="424" spans="1:1">
+      <c r="B423" t="s">
+        <v>246</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
       <c r="A424" s="11" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="425" spans="1:1">
+      <c r="B424" t="s">
+        <v>246</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
       <c r="A425" s="11" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="426" spans="1:1">
+      <c r="B425" t="s">
+        <v>246</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
       <c r="A426" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="427" spans="1:1">
+      <c r="B426" t="s">
+        <v>246</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
       <c r="A427" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="428" spans="1:1">
+      <c r="B427" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
       <c r="A428" s="16" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="429" spans="1:1">
+      <c r="B428" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
       <c r="A429" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="430" spans="1:1">
+      <c r="B429" t="s">
+        <v>247</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
       <c r="A430" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="431" spans="1:1">
+      <c r="B430" t="s">
+        <v>247</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
       <c r="A431" s="4" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="432" spans="1:1">
+      <c r="B431" t="s">
+        <v>247</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D431" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
       <c r="A432" s="4" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="433" spans="1:1">
+      <c r="B432" t="s">
+        <v>247</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
       <c r="A433" s="11" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="434" spans="1:1">
+      <c r="B433" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
       <c r="A434" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="435" spans="1:1">
+      <c r="B434" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
       <c r="A435" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="436" spans="1:1">
+      <c r="B435" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
       <c r="A436" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="437" spans="1:1">
+      <c r="B436" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
       <c r="A437" s="17" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="438" spans="1:1">
+      <c r="B437" t="s">
+        <v>274</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
       <c r="A438" s="12" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="439" spans="1:1">
+      <c r="B438" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
       <c r="A439" s="4" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="440" spans="1:1">
+      <c r="B439" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
       <c r="A440" s="14"/>
     </row>
   </sheetData>
-  <sortState ref="A1:A440">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A440">
     <sortCondition ref="A403"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4645,7 +10267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A65" workbookViewId="0">
@@ -5068,7 +10690,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A82">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A82">
     <sortCondition ref="A23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5077,10 +10699,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -5089,7 +10711,7 @@
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="48" thickBot="1">
+    <row r="1" spans="1:1" ht="16.5" thickBot="1">
       <c r="A1" s="25" t="s">
         <v>521</v>
       </c>
@@ -5099,7 +10721,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="32.25" thickBot="1">
+    <row r="3" spans="1:1" ht="16.5" thickBot="1">
       <c r="A3" s="27" t="s">
         <v>523</v>
       </c>
@@ -5384,7 +11006,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="78.75">
+    <row r="60" spans="1:1" ht="15.75">
       <c r="A60" s="25" t="s">
         <v>580</v>
       </c>
@@ -5569,17 +11191,17 @@
         <v>616</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="32.25" thickBot="1">
+    <row r="97" spans="1:1" ht="16.5" thickBot="1">
       <c r="A97" s="27" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="31.5">
+    <row r="98" spans="1:1" ht="15.75">
       <c r="A98" s="25" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="31.5">
+    <row r="99" spans="1:1" ht="15.75">
       <c r="A99" s="34" t="s">
         <v>619</v>
       </c>

--- a/Docs/Specs/Listák.xlsx
+++ b/Docs/Specs/Listák.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bzfel\source\repos\Kantoratus\Docs\Specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF80DC27-B6A6-4E78-AAA6-A3B40547EE8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929AEE83-43DD-4473-93A7-9EC43275299B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Önálló művek" sheetId="6" r:id="rId1"/>
@@ -2675,7 +2675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -7967,10 +7967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A82"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7978,414 +7978,742 @@
     <col min="1" max="1" width="39" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="str">
+        <f>"INSERT INTO Composers (Name) Values ('" &amp; A1 &amp;"')"</f>
+        <v>INSERT INTO Composers (Name) Values ('Agricola, Martin (1486–1556)')</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B65" si="0">"INSERT INTO Composers (Name) Values ('" &amp; A2 &amp;"')"</f>
+        <v>INSERT INTO Composers (Name) Values ('Árokháty Béla (1890–1942)')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Bach, Johann Sebastian (1685–1750)')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Bárdos Lajos (1899–1986)')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Bartling, Säde (1965–)')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Bence Gábor (1962–)')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Brahms, Johannes (1806–1872)')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Bruck, Arnold von (1500–1554)')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Calvisius, Seth (1556–1615)')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Crüger, Johann (1598–1662)')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Csomasz Tóth Kálmán (1902–1988)')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Csorba István (1935–)')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Distler, Hugo (1908–1942)')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Draskóczy László (1940–2020)')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Dufay, Guillaume (1397–1474)')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Ebeling, Johann Georg (1637–1676)')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Eccard, Johann (1553–1611)')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Erlebach, Philipp Heinrich (1657–1714)')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Erythräus, Gotthart (1560–1617)')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Fasang Árpád (1912–2001)')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Gárdonyi Zoltán (1906–1986)')</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Gárdonyi Zsolt (1946–)')</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Gastoldi, Giovanni Giacomo (1550–1622)')</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Geist, Christian (1650–1711)')</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Gesius, Bartholomäus (1560–1613)')</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Goudimel, Claude (1514–1572)')</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Gumpelzhaimer, Adam (1559–1625)')</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Halmos László (1909–1997)')</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Hamar Gyula (1881–1976)')</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Händel, Georg Friedrich (1685–1759)')</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Hassler, Hans Leo (1564–1612)')</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Heer, Johannes (1489–1553)')</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Huis, Mees van (1909–1996)')</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Jaanson, Mart (1966–)')</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Jambe de Fer, Philibert (1515–1566)')</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Janequin, Clément (1485–1558)')</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Jeune, Claude le (1530–1600)')</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Jürjo, Tuuliki (1966–)')</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Kapi Gyula (1850–1923)')</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Kapi-Králik Jenő (1906–1978)')</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Knab, Armin (1881–1951)')</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Knüpfer, Sebastian (1633–1676)')</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Kodály Zoltán (1882–1967)')</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Kugelmann, Johann (1616–1655)')</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Lasso, Orlando di (1532–1594)')</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Lechner, Leonhardt (1550–1606)')</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Lepnurm, Hugo (1914–1999)')</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Loewe, Carl (1796–1869)')</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Mareschall, Samuel (1554–1640)')</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Neumark, Georg (1621–1681)')</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Nyberg, Mikael (1871–1940)')</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Osváth Viktor (1921–1985)')</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Othmayr, Kaspar (1515–1553)')</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Pap Kinga Marjatta (1980–)')</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Pevernage, Andreas (1542/3–1591)')</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Praetorius, Hieronymus (1560–1629)')</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Praetorius, Michael (1571–1621)')</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Raselius, Andreas (1563–1602)')</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Reger, Max (1873–1916)')</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Resinarius, Balthasar (1486–1567)')</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Rezessy László (1912–1997)')</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Scheidt, Samuel (1587–1654)')</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Schein, Johann Hermann (1586–1630) ')</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Schelle, Johann (1648–1701)')</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Composers (Name) Values ('Schröter, Leonhart (1532–1601)')</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B82" si="1">"INSERT INTO Composers (Name) Values ('" &amp; A66 &amp;"')"</f>
+        <v>INSERT INTO Composers (Name) Values ('Schürmann, Burkhart M. (1972–)')</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Composers (Name) Values ('Schütz, Heinrich (1585–1672)')</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Composers (Name) Values ('Selnecker, Nikolaus (1530-1592)')</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Composers (Name) Values ('Staden, Johann (1581–1634)')</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Composers (Name) Values ('Stern, Hermann (1912–1977)')</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Composers (Name) Values ('Strube, Adolf (1894–1973)')</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Composers (Name) Values ('Sulyok Imre (1912–2008)')</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Composers (Name) Values ('Sweelinck, Jan Pieterszoon (1562–1620)')</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Composers (Name) Values ('Szebik Attila (1972–)')</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Composers (Name) Values ('Tillai Aurél (1930–)')</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Composers (Name) Values ('Trajtler Gábor (1929–)')</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Composers (Name) Values ('Vulpius, Melchior (1570–1615)')</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Composers (Name) Values ('Walter, Johann (1496–1570)')</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Composers (Name) Values ('Weltler Jenő (1909–1992)')</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Composers (Name) Values ('Willcocks, David (1919–2015)')</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Composers (Name) Values ('Wulf, Herbert (1939–2013)')</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="5" t="s">
         <v>78</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Composers (Name) Values ('Zalánfy Aladár (1887–1959)')</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Specs/Listák.xlsx
+++ b/Docs/Specs/Listák.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bzfel\source\repos\Kantoratus\Docs\Specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929AEE83-43DD-4473-93A7-9EC43275299B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C675B7-9830-4183-8F20-CD841116134E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Önálló művek" sheetId="6" r:id="rId1"/>
@@ -7969,7 +7969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -8727,10 +8727,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A102"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8738,514 +8738,922 @@
     <col min="1" max="1" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16.5" thickBot="1">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" thickBot="1">
+      <c r="B1" t="str">
+        <f>"INSERT INTO Members(Name) VALUES ('" &amp; A1 &amp;"')"</f>
+        <v>INSERT INTO Members(Name) VALUES ('Angyal-Cseke Csaba')</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1">
       <c r="A2" s="25" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="16.5" thickBot="1">
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B65" si="0">"INSERT INTO Members(Name) VALUES ('" &amp; A2 &amp;"')"</f>
+        <v>INSERT INTO Members(Name) VALUES ('Bagi-Misják Petra')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1">
       <c r="A3" s="26" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75">
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Balás Eszter')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="27" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Bence Áron')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="27" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Bence Gábor')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Bence Zsófi Anna')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
       <c r="A7" s="28" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Bencsné Bokányi Eszter')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Benda György')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="27" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Béres Márk')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
       <c r="A10" s="27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.75">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Bódiss Tamás')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
       <c r="A11" s="29" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Borsos Miklós')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
       <c r="A12" s="27" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.75">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Brolly Áron')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
       <c r="A13" s="27" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.75">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Bujtár-Buza Zsófia')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
       <c r="A14" s="28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.75">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Csepregi Dorka')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
       <c r="A15" s="27" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="15.75">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Csepregi Győző')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="27" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Csernyik Balázs')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="27" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Danis (Soltész) Petra')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
       <c r="A18" s="30" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Dévényi-Győrffy Imola')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="27" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Dibusz Ferenc')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
       <c r="A20" s="27" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Ecsedi Klára')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75">
       <c r="A21" s="27" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Fekete Ádámné Ecsedi Katalin')</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75">
       <c r="A22" s="27" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Fekete Anikó')</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75">
       <c r="A23" s="27" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Ferenczi Zsolt')</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75">
       <c r="A24" s="27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Gadó Benedek')</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75">
       <c r="A25" s="30" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Gadóné Kézdy Edit')</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75">
       <c r="A26" s="27" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Gion Kata')</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75">
       <c r="A27" s="27" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.75">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Gion Zsuzsa')</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75">
       <c r="A28" s="28" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.75">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Gombkötő Beáta')</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75">
       <c r="A29" s="27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.75">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Gombos (Bence) Kata')</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75">
       <c r="A30" s="27" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="15.75">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Gombos Arikán')</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75">
       <c r="A31" s="29" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.75">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Hacknauer Bettina')</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75">
       <c r="A32" s="27" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Halmi Krisztina SJC')</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75">
       <c r="A33" s="28" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Haris Zsófia')</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75">
       <c r="A34" s="28" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Herboly Bendegúz')</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75">
       <c r="A35" s="27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.75">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Hoffmann Ágnes')</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75">
       <c r="A36" s="27" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Hunyák (Farkas) Erika')</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75">
       <c r="A37" s="28" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.75">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Iker Julianna')</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75">
       <c r="A38" s="29" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.75">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Ittzés András')</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75">
       <c r="A39" s="29" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.75">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Ittzés Máté')</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75">
       <c r="A40" s="29" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.75">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Johann Panna')</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75">
       <c r="A41" s="27" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.75">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Johansson Abaffy Nóra')</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75">
       <c r="A42" s="28" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.75">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Kanizsár Dorottya')</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75">
       <c r="A43" s="27" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="15.75">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Kecskés D. Vértesy Júlia')</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75">
       <c r="A44" s="27" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="15.75">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Kéménczy Antal')</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75">
       <c r="A45" s="27" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="15.75">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Kérges Barnabás')</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75">
       <c r="A46" s="27" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="15.75">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Kérges Dániel')</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75">
       <c r="A47" s="27" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="15.75">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Kesselyák Bence')</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75">
       <c r="A48" s="30" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="15.75">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Kis Benedek')</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75">
       <c r="A49" s="28" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="15.75">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Kiss Renáta')</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75">
       <c r="A50" s="28" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="15.75">
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Kiss Zsuzsanna')</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75">
       <c r="A51" s="27" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="15.75">
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Klein Ferenc')</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75">
       <c r="A52" s="27" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="15.75">
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Kolba Gábor')</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75">
       <c r="A53" s="27" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="15.75">
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Kolba Hajnalka')</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75">
       <c r="A54" s="28" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="15.75">
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Kotsis Domokos')</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75">
       <c r="A55" s="27" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="15.75">
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Kovácsné Végh Julianna')</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75">
       <c r="A56" s="27" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="15.75">
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Kretz István')</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75">
       <c r="A57" s="29" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="15.75">
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Kulcsár (Bokros) Virág Kata')</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75">
       <c r="A58" s="30" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="15.75">
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Kutschi Renáta')</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75">
       <c r="A59" s="28" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="15.75">
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('La-Torre Krisztina')</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75">
       <c r="A60" s="24" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="15.75">
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Lencsés Jánosné Balás Dóra Katalin')</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75">
       <c r="A61" s="31" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="15.75">
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Mády Katalin')</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75">
       <c r="A62" s="27" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="15.75">
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Mechler Anna')</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75">
       <c r="A63" s="27" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="15.75">
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Megyesi Zoltán')</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75">
       <c r="A64" s="27" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="15.75">
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Megyesi Zsófia')</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75">
       <c r="A65" s="27" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="15.75">
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Members(Name) VALUES ('Mekis Péter')</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75">
       <c r="A66" s="28" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="15.75">
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B102" si="1">"INSERT INTO Members(Name) VALUES ('" &amp; A66 &amp;"')"</f>
+        <v>INSERT INTO Members(Name) VALUES ('Melis Kinga')</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75">
       <c r="A67" s="28" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="15.75">
+      <c r="B67" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Mészáros AnZsó')</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75">
       <c r="A68" s="27" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="15.75">
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Miklósné Székács Judit')</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75">
       <c r="A69" s="28" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="15.75">
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Molnár Lilla')</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75">
       <c r="A70" s="27" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="15.75">
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Nagy Ákos')</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75">
       <c r="A71" s="28" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="15.75">
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Nagy Bertalan')</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75">
       <c r="A72" s="27" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="15.75">
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Németh Pál')</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75">
       <c r="A73" s="27" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="15.75">
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Németh Sándor')</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75">
       <c r="A74" s="27" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="15.75">
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Németh Zsuzsa')</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75">
       <c r="A75" s="29" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="15.75">
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Nováky Andrea')</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75">
       <c r="A76" s="27" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="15.75">
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Opicz József')</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75">
       <c r="A77" s="27" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="15.75">
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Pálmai Árpád')</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75">
       <c r="A78" s="27" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="15.75">
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Pap Anna Inkeri')</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75">
       <c r="A79" s="27" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="15.75">
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Pap Kinga Marjatta')</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75">
       <c r="A80" s="27" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="15.75">
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Plaveczné Győri Katalin Dorottya')</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75">
       <c r="A81" s="27" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="15.75">
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Pócs Miklós')</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75">
       <c r="A82" s="27" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="15.75">
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Remenár (Kocsis) Krisztina')</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75">
       <c r="A83" s="27" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="15.75">
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Rohloff (Győri) Noémi')</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75">
       <c r="A84" s="27" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="15.75">
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Rozsnyai Gábor')</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75">
       <c r="A85" s="27" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="15.75">
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Rumy Balázs')</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75">
       <c r="A86" s="27" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="15.75">
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Simon Barbara')</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75">
       <c r="A87" s="27" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="15.75">
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Somogyi Anna')</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75">
       <c r="A88" s="27" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="15.75">
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Szabó Tímea')</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75">
       <c r="A89" s="27" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="15.75">
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Széchey Orsolya')</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75">
       <c r="A90" s="28" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="15.75">
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Szunyoghy Dóra')</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75">
       <c r="A91" s="27" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="15.75">
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Szűcs Petra')</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75">
       <c r="A92" s="27" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="16.5" thickBot="1">
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Táborszkyné Ruthner Judit')</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="16.5" thickBot="1">
       <c r="A93" s="27" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="16.5" thickBot="1">
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Thurnay Viola')</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="16.5" thickBot="1">
       <c r="A94" s="32" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="16.5" thickBot="1">
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Torma Tamás')</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="16.5" thickBot="1">
       <c r="A95" s="32" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="16.5" thickBot="1">
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Tuppurainen Outi')</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16.5" thickBot="1">
       <c r="A96" s="26" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="15.75">
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Tüzes Ágoston')</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75">
       <c r="A97" s="24" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="15.75">
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Tüzes Johanna')</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75">
       <c r="A98" s="33" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="15.75">
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Tüzes Marcell')</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75">
       <c r="A99" s="27" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="15.75">
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Vági Levente')</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75">
       <c r="A100" s="27" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="15.75">
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Végh András')</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75">
       <c r="A101" s="27" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="15.75">
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Végh Anna')</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75">
       <c r="A102" s="29" t="s">
         <v>180</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Members(Name) VALUES ('Zalatnay Lídia')</v>
       </c>
     </row>
   </sheetData>
